--- a/Build_PC.xlsx
+++ b/Build_PC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qrv\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quang\Desktop\ELCA\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Intel Core i5 8400 2.8Ghz (Coffee Lake )</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t xml:space="preserve">SUM </t>
+  </si>
+  <si>
+    <t>LG 24MP59G-P 24" 75HZ</t>
+  </si>
+  <si>
+    <t>SAMA COMBAT</t>
   </si>
 </sst>
 </file>
@@ -109,8 +115,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#\,###\,###"/>
-    <numFmt numFmtId="172" formatCode="###\,###"/>
+    <numFmt numFmtId="164" formatCode="#\,###\,###"/>
+    <numFmt numFmtId="165" formatCode="###\,###"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -178,11 +184,11 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -191,7 +197,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -478,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,11 +611,11 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F13" s="3">
         <f>VLOOKUP(E13,Q40:R50,2,FALSE)</f>
-        <v>3050000</v>
+        <v>3499000</v>
       </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.25">
@@ -618,7 +624,7 @@
       </c>
       <c r="F14" s="7">
         <f>SUM(F5:F13)</f>
-        <v>19325000</v>
+        <v>19774000</v>
       </c>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.25">
@@ -695,7 +701,12 @@
       <c r="H41" s="2">
         <v>2795000</v>
       </c>
-      <c r="J41" s="2"/>
+      <c r="I41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="2">
+        <v>950000</v>
+      </c>
       <c r="K41" t="s">
         <v>8</v>
       </c>
@@ -725,7 +736,12 @@
       <c r="L42" s="2"/>
       <c r="N42" s="2"/>
       <c r="P42" s="2"/>
-      <c r="R42" s="2"/>
+      <c r="Q42" t="s">
+        <v>26</v>
+      </c>
+      <c r="R42" s="2">
+        <v>3499000</v>
+      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
@@ -820,7 +836,7 @@
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E5">
       <formula1>$A$40:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">

--- a/Build_PC.xlsx
+++ b/Build_PC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quang\Desktop\ELCA\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qrv\Desktop\Git\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -181,7 +181,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -200,6 +200,7 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -484,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,19 +683,23 @@
       <c r="Q40" t="s">
         <v>12</v>
       </c>
-      <c r="R40" s="2">
+      <c r="R40" s="8">
         <v>3050000</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="2">
         <v>2250000</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
       <c r="G41" t="s">
         <v>5</v>
       </c>
@@ -719,117 +724,279 @@
       <c r="N41" s="3">
         <v>840000</v>
       </c>
-      <c r="P41" s="2"/>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
       <c r="Q41" t="s">
         <v>13</v>
       </c>
-      <c r="R41" s="2">
+      <c r="R41" s="8">
         <v>3670000</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="P42" s="2"/>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
       <c r="Q42" t="s">
         <v>26</v>
       </c>
-      <c r="R42" s="2">
+      <c r="R42" s="8">
         <v>3499000</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="R43" s="2"/>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="R44" s="2"/>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="R45" s="2"/>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="R46" s="2"/>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="R46" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="R47" s="2"/>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="R48" s="2"/>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="R49" s="2"/>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="R50" s="2"/>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P51" s="2"/>
